--- a/biology/Médecine/Ladislas_Landowski/Ladislas_Landowski.xlsx
+++ b/biology/Médecine/Ladislas_Landowski/Ladislas_Landowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ladislas Vincent Landowski, né à Montpellier le 8 octobre 1867, mort dans le 16e arrondissement de Paris le 8 février 1954 (à 86 ans), est un docteur en médecine français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ladislas Vincent est le fils de Édouard Landowski, docteur en médecine, et de Marie Januszkiewicz.
 Après le décès de sa mère, son père l'emmène à Paris ou ils emménagent, Rue Chaptal.
@@ -549,7 +563,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Commandeur de la Légion d'honneur
 Croix de guerre</t>
